--- a/new.xlsx
+++ b/new.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="325">
   <si>
     <t>Staff Name</t>
   </si>
@@ -946,6 +946,58 @@
   </si>
   <si>
     <t>7/18/16</t>
+  </si>
+  <si>
+    <t>E112</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>N203 key</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Keys are in ACE 015 storeroom. Make sure all workstations have a keyboard and a mouse, _x000D_
+                    shut down the lights and lock the door.If the room is already locked please report on your log.</t>
+  </si>
+  <si>
+    <t>W136</t>
+  </si>
+  <si>
+    <t>W257</t>
+  </si>
+  <si>
+    <t>W141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditorium - please assist client as they wil be streaming the lecture via Facebook. Ensure light levels and audio volumes are right </t>
+  </si>
+  <si>
+    <t>2 neck mics - built in  and 2 audience handheld wireless mics - there , turn on, check battery levels, instruct client</t>
+  </si>
+  <si>
+    <t>W356</t>
+  </si>
+  <si>
+    <t> 1152</t>
+  </si>
+  <si>
+    <t>Pickup VHS cart and connecting cables. N203 key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return 2 neck mics to drawer in room;  return 2 wireless handheld mics, with stands to SSB N103 </t>
+  </si>
+  <si>
+    <t>N109</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0033"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1208,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1357,6 +1415,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1666,7 +1751,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H854"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A419" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I438" sqref="I438"/>
@@ -12837,7 +12922,7 @@
       </c>
       <c r="G512" s="72"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
         <v>90</v>
       </c>
@@ -12860,7 +12945,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="10" t="s">
         <v>90</v>
       </c>
@@ -12881,7 +12966,7 @@
       </c>
       <c r="G514" s="72"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="10" t="s">
         <v>90</v>
       </c>
@@ -12901,6 +12986,6216 @@
         <v>219</v>
       </c>
       <c r="G515" s="72"/>
+    </row>
+    <row r="516" spans="1:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C516" s="77"/>
+      <c r="D516" s="78"/>
+      <c r="F516" s="79"/>
+      <c r="G516" s="80"/>
+      <c r="H516" s="81"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B517" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C517" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D517" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E517" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F517" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B518" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C518" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D518" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E518" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F518" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G518" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B519" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C519" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D519" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E519" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F519" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G519" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B520" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C520" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D520" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E520" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F520" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B521" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C521" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D521" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E521" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F521" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B522" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C522" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D522" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E522" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F522" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B523" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C523" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D523" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E523" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F523" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B524" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C524" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D524" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E524" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F524" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B525" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C525" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D525" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E525" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F525" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G525" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B526" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C526" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D526" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E526" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F526" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B527" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C527" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D527" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E527" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F527" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B528" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C528" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D528" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E528" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F528" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B529" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C529" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D529" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E529" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F529" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G529" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B530" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C530" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D530" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E530" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F530" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G530" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B531" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C531" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D531" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E531" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F531" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G531" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B532" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C532" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D532" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E532" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F532" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G532" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B533" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C533" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D533" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E533" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F533" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B534" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C534" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D534" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E534" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F534" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G534" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B535" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C535" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D535" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E535" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F535" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B536" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C536" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D536" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E536" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F536" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G536" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B537" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C537" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D537" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E537" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F537" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B538" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C538" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D538" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E538" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F538" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B539" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C539" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D539" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E539" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F539" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B540" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C540" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D540" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E540" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F540" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G540" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B541" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C541" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D541" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E541" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F541" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B542" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C542" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D542" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E542" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F542" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B543" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C543" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D543" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E543" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F543" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B544" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C544" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D544" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E544" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F544" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B545" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C545" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D545" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E545" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F545" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B546" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C546" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D546" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E546" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F546" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G546" s="83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="547" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B547" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C547" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D547" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E547" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F547" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G547" s="83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B548" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C548" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D548" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E548" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F548" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B549" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C549" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D549" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E549" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F549" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B550" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C550" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D550" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E550" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F550" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B551" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C551" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D551" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E551" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F551" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B552" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C552" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D552" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E552" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F552" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G552" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B553" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C553" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D553" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E553" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F553" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G553" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B554" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C554" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D554" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E554" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F554" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G554" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B555" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C555" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D555" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E555" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F555" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G555" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B556" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C556" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D556" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E556" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F556" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G556" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B557" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C557" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D557" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E557" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F557" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G557" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B558" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C558" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D558" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E558" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F558" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G558" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B559" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C559" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D559" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E559" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F559" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G559" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B560" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C560" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D560" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E560" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F560" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G560" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B561" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C561" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D561" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E561" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F561" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B562" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C562" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D562" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E562" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F562" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B563" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C563" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D563" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E563" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F563" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B564" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C564" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D564" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E564" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F564" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B565" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C565" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D565" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E565" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F565" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G565" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B566" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C566" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D566" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E566" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F566" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G566" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B567" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C567" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D567" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E567" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F567" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B568" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C568" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D568" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E568" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F568" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="569" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B569" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C569" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D569" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E569" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F569" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G569" s="83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="570" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B570" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C570" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D570" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E570" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F570" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G570" s="83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B571" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C571" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D571" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E571" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F571" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B572" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C572" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D572" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E572" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F572" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B573" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C573" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D573" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E573" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F573" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B574" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C574" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D574" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E574" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F574" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B575" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C575" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D575" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E575" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F575" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B576" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C576" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D576" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E576" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F576" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B577" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C577" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D577" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E577" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F577" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G577" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B578" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C578" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D578" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E578" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F578" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B579" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C579" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D579" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E579" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F579" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B580" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C580" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D580" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E580" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F580" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B581" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C581" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D581" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E581" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F581" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G581" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B582" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C582" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D582" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E582" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F582" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B583" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C583" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D583" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E583" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F583" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G583" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B584" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C584" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D584" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E584" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F584" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G584" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B585" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C585" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D585" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E585" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F585" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G585" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B586" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C586" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D586" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E586" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F586" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G586" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B587" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C587" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D587" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E587" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F587" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B588" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C588" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D588" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E588" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F588" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G588" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B589" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C589" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D589" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E589" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F589" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B590" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C590" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D590" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E590" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F590" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B591" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C591" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D591" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E591" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F591" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B592" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C592" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D592" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E592" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F592" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B593" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C593" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D593" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E593" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F593" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B594" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C594" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D594" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E594" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F594" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G594" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B595" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C595" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D595" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E595" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F595" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B596" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C596" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D596" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E596" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F596" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B597" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C597" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D597" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E597" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F597" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B598" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C598" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D598" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E598" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F598" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B599" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C599" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D599" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E599" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F599" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G599" s="83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B600" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C600" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D600" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E600" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F600" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B601" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C601" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D601" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E601" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F601" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G601" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B602" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C602" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D602" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E602" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F602" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G602" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B603" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C603" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D603" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E603" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F603" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B604" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C604" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D604" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E604" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F604" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G604" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B605" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C605" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D605" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E605" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F605" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B606" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C606" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D606" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E606" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F606" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G606" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B607" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C607" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D607" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E607" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F607" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B608" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C608" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D608" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E608" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F608" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B609" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C609" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D609" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E609" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F609" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B610" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C610" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D610" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E610" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F610" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="611" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B611" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C611" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D611" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E611" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F611" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G611" s="83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B612" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C612" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D612" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E612" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F612" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G612" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B613" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C613" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D613" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E613" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F613" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B614" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C614" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D614" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E614" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F614" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G614" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B615" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C615" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D615" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E615" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F615" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G615" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B616" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C616" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D616" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E616" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F616" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G616" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B617" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C617" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D617" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E617" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F617" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G617" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B618" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C618" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D618" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E618" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F618" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G618" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B619" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C619" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D619" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E619" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F619" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G619" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B620" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C620" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D620" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E620" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F620" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B621" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C621" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D621" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E621" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F621" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G621" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B622" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C622" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D622" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E622" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F622" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G622" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B623" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C623" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D623" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E623" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F623" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G623" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B624" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C624" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D624" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E624" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F624" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G624" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="625" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B625" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C625" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D625" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E625" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F625" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="626" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B626" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C626" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D626" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E626" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F626" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G626" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="627" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B627" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C627" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D627" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E627" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F627" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G627" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="628" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B628" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C628" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D628" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E628" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F628" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G628" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="629" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C629" s="77"/>
+      <c r="D629" s="78"/>
+      <c r="F629" s="79"/>
+      <c r="G629" s="80"/>
+      <c r="H629" s="81"/>
+    </row>
+    <row r="630" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B630" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C630" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D630" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E630" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F630" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="631" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B631" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C631" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D631" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E631" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F631" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G631" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="632" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B632" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C632" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D632" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E632" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F632" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G632" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="633" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B633" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C633" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D633" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E633" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F633" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="634" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B634" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C634" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D634" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E634" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F634" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="635" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B635" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C635" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D635" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E635" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F635" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="636" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B636" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C636" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D636" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E636" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F636" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="637" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B637" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C637" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D637" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E637" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F637" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="638" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B638" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C638" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D638" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E638" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F638" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G638" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="639" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B639" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C639" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D639" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E639" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F639" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="640" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B640" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C640" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D640" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E640" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F640" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B641" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C641" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D641" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E641" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F641" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B642" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C642" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D642" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E642" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F642" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G642" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B643" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C643" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D643" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E643" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F643" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G643" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B644" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C644" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D644" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E644" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F644" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G644" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B645" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C645" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D645" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E645" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F645" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G645" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B646" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C646" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D646" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E646" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F646" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B647" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C647" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D647" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E647" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F647" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G647" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B648" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C648" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D648" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E648" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F648" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B649" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C649" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D649" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E649" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F649" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G649" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B650" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C650" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D650" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E650" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F650" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B651" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C651" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D651" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E651" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F651" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B652" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C652" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D652" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E652" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F652" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B653" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C653" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D653" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E653" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F653" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G653" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B654" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C654" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D654" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E654" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F654" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B655" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C655" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D655" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E655" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F655" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B656" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C656" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D656" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E656" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F656" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B657" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C657" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D657" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E657" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F657" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B658" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C658" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D658" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E658" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F658" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B659" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C659" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D659" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E659" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F659" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G659" s="83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="660" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B660" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C660" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D660" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E660" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F660" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G660" s="83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B661" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C661" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D661" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E661" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F661" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B662" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C662" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D662" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E662" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F662" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B663" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C663" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D663" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E663" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F663" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B664" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C664" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D664" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E664" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F664" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B665" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C665" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D665" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E665" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F665" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G665" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B666" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C666" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D666" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E666" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F666" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G666" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B667" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C667" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D667" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E667" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F667" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G667" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B668" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C668" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D668" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E668" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F668" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G668" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B669" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C669" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D669" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E669" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F669" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G669" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B670" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C670" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D670" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E670" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F670" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G670" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B671" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C671" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D671" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E671" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F671" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G671" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B672" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C672" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D672" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E672" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F672" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G672" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B673" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C673" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D673" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E673" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F673" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G673" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B674" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C674" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D674" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E674" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F674" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B675" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C675" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D675" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E675" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F675" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B676" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C676" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D676" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E676" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F676" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B677" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C677" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D677" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E677" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F677" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B678" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C678" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D678" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E678" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F678" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G678" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B679" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C679" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D679" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E679" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F679" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G679" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B680" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C680" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D680" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E680" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F680" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B681" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C681" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D681" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E681" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F681" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="682" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B682" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C682" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D682" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E682" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F682" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G682" s="83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="683" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B683" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C683" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D683" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E683" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F683" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G683" s="83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B684" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C684" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D684" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E684" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F684" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B685" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C685" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D685" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E685" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F685" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B686" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C686" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D686" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E686" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F686" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B687" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C687" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D687" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E687" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F687" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B688" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C688" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D688" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E688" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F688" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B689" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C689" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D689" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E689" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F689" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B690" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C690" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D690" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E690" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F690" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G690" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B691" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C691" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D691" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E691" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F691" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B692" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C692" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D692" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E692" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F692" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B693" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C693" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D693" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E693" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F693" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B694" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C694" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D694" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E694" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F694" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G694" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B695" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C695" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D695" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E695" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F695" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B696" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C696" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D696" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E696" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F696" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G696" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B697" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C697" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D697" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E697" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F697" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G697" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B698" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C698" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D698" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E698" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F698" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G698" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B699" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C699" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D699" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E699" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F699" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G699" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B700" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C700" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D700" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E700" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F700" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B701" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C701" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D701" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E701" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F701" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G701" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B702" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C702" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D702" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E702" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F702" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B703" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C703" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D703" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E703" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F703" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B704" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C704" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D704" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E704" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F704" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B705" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C705" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D705" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E705" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F705" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B706" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C706" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D706" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E706" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F706" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B707" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C707" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D707" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E707" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F707" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G707" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B708" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C708" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D708" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E708" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F708" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B709" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C709" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D709" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E709" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F709" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B710" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C710" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D710" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E710" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F710" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B711" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C711" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D711" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E711" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F711" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B712" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C712" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D712" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E712" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F712" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G712" s="83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B713" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C713" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D713" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E713" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F713" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B714" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C714" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D714" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E714" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F714" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G714" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B715" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C715" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D715" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E715" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F715" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G715" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B716" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C716" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D716" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E716" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F716" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B717" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C717" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D717" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E717" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F717" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G717" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B718" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C718" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D718" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E718" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F718" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B719" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C719" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D719" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E719" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F719" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G719" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B720" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C720" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D720" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E720" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F720" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B721" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C721" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D721" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E721" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F721" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B722" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C722" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D722" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E722" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F722" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B723" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C723" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D723" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E723" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F723" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="724" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B724" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C724" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D724" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E724" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F724" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G724" s="83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B725" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C725" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D725" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E725" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F725" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G725" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B726" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C726" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D726" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E726" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F726" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B727" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C727" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D727" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E727" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F727" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G727" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B728" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C728" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D728" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E728" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F728" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G728" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B729" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C729" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D729" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E729" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F729" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G729" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B730" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C730" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D730" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E730" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F730" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G730" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B731" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C731" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D731" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E731" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F731" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G731" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B732" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C732" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D732" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E732" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F732" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G732" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B733" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C733" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D733" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E733" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F733" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B734" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C734" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D734" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E734" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F734" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G734" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B735" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C735" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D735" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E735" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F735" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G735" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B736" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C736" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D736" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E736" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F736" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G736" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="737" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B737" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C737" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D737" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E737" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F737" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G737" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="738" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B738" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C738" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D738" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E738" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F738" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="739" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B739" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C739" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D739" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E739" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F739" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G739" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="740" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B740" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C740" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D740" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E740" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F740" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G740" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="741" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B741" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C741" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D741" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E741" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F741" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G741" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="742" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C742" s="77"/>
+      <c r="D742" s="78"/>
+      <c r="F742" s="79"/>
+      <c r="G742" s="80"/>
+      <c r="H742" s="81"/>
+    </row>
+    <row r="743" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B743" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C743" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D743" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E743" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F743" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="744" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B744" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C744" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D744" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E744" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F744" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G744" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="745" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B745" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C745" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D745" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E745" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F745" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G745" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="746" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B746" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C746" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D746" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E746" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F746" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="747" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B747" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C747" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D747" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E747" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F747" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="748" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B748" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C748" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D748" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E748" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F748" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="749" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B749" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C749" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D749" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E749" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F749" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="750" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B750" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C750" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D750" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E750" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F750" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="751" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B751" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C751" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D751" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E751" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F751" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G751" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="752" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B752" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C752" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D752" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E752" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F752" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B753" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C753" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D753" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E753" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F753" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B754" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C754" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D754" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E754" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F754" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B755" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C755" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D755" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E755" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F755" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G755" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B756" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C756" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D756" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E756" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F756" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G756" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B757" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C757" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D757" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E757" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F757" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G757" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B758" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C758" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D758" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E758" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F758" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G758" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B759" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C759" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D759" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E759" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F759" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B760" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C760" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D760" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E760" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F760" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G760" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B761" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C761" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D761" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E761" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F761" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B762" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C762" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D762" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E762" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F762" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G762" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B763" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C763" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D763" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E763" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F763" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B764" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C764" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D764" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E764" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F764" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B765" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C765" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D765" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E765" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F765" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B766" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C766" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D766" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E766" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F766" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G766" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B767" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C767" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D767" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E767" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F767" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B768" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C768" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D768" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E768" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F768" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B769" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C769" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D769" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E769" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F769" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B770" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C770" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D770" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E770" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F770" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B771" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C771" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D771" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E771" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F771" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B772" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C772" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D772" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E772" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F772" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G772" s="83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="773" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B773" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C773" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D773" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E773" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F773" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G773" s="83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B774" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C774" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D774" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E774" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F774" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B775" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C775" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D775" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E775" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F775" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B776" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C776" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D776" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E776" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F776" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B777" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C777" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D777" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E777" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F777" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B778" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C778" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D778" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E778" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F778" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G778" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B779" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C779" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D779" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E779" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F779" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G779" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B780" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C780" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D780" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E780" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F780" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G780" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B781" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C781" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D781" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E781" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F781" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G781" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B782" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C782" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D782" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E782" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F782" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G782" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B783" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C783" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D783" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E783" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F783" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G783" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B784" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C784" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D784" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E784" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F784" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G784" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B785" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C785" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D785" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E785" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F785" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G785" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B786" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C786" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D786" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E786" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F786" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G786" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B787" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C787" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D787" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E787" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F787" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B788" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C788" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D788" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E788" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F788" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B789" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C789" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D789" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E789" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F789" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B790" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C790" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D790" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E790" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F790" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B791" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C791" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D791" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E791" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F791" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G791" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B792" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C792" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D792" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E792" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F792" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G792" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B793" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C793" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D793" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E793" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F793" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B794" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C794" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D794" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E794" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F794" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="795" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B795" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C795" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D795" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E795" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F795" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G795" s="83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="796" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B796" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C796" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D796" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E796" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F796" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G796" s="83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B797" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C797" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D797" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E797" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F797" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B798" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C798" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D798" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E798" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F798" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B799" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C799" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D799" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E799" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F799" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B800" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C800" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D800" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E800" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F800" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B801" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C801" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D801" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E801" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F801" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B802" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C802" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D802" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E802" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F802" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B803" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C803" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D803" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E803" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F803" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G803" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B804" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C804" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D804" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E804" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F804" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B805" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C805" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D805" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E805" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F805" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B806" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C806" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D806" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E806" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F806" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B807" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C807" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D807" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E807" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F807" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G807" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B808" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C808" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D808" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E808" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F808" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B809" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C809" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D809" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E809" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F809" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G809" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B810" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C810" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D810" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E810" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F810" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G810" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B811" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C811" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D811" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E811" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F811" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G811" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B812" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C812" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D812" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E812" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F812" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G812" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B813" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C813" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D813" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E813" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F813" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B814" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C814" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D814" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E814" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F814" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G814" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B815" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C815" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D815" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E815" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F815" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B816" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C816" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D816" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E816" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F816" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B817" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C817" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D817" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E817" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F817" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B818" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C818" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D818" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E818" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F818" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B819" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C819" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D819" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E819" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F819" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B820" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C820" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D820" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E820" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F820" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G820" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B821" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C821" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D821" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E821" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F821" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B822" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C822" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D822" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E822" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F822" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B823" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C823" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D823" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E823" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F823" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B824" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C824" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D824" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E824" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F824" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B825" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C825" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D825" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E825" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F825" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G825" s="83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B826" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C826" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D826" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E826" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F826" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B827" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C827" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D827" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E827" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F827" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G827" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B828" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C828" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D828" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E828" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F828" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G828" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B829" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C829" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D829" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E829" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F829" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B830" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C830" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D830" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E830" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F830" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="G830" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B831" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C831" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D831" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E831" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F831" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B832" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C832" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D832" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E832" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F832" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G832" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B833" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C833" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D833" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E833" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F833" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B834" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C834" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D834" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E834" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F834" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B835" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C835" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D835" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E835" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F835" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B836" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C836" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D836" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E836" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F836" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="837" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B837" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C837" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D837" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E837" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F837" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="G837" s="83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B838" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C838" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D838" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E838" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F838" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G838" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B839" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C839" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D839" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E839" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F839" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B840" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C840" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D840" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E840" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F840" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G840" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B841" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C841" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D841" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E841" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F841" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G841" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B842" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C842" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D842" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E842" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F842" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G842" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B843" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C843" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D843" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E843" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F843" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G843" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B844" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C844" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D844" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E844" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F844" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G844" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B845" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C845" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D845" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E845" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F845" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G845" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B846" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C846" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D846" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E846" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F846" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B847" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C847" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D847" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E847" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F847" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G847" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B848" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C848" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D848" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E848" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F848" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G848" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B849" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C849" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D849" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E849" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F849" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G849" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B850" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C850" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D850" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E850" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F850" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G850" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B851" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C851" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D851" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E851" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F851" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B852" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C852" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D852" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E852" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F852" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G852" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B853" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C853" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D853" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E853" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F853" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="G853" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B854" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C854" s="11">
+        <v>42571</v>
+      </c>
+      <c r="D854" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E854" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F854" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G854" s="84" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>

--- a/new.xlsx
+++ b/new.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15499" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17095" uniqueCount="349">
   <si>
     <t>Staff Name</t>
   </si>
@@ -1061,6 +1061,21 @@
   <si>
     <t> 050B</t>
   </si>
+  <si>
+    <t> 157A</t>
+  </si>
+  <si>
+    <t>W132</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Make sure Prof Jenkins is okay with room. They are having an exam so need timeclock on screen and she will be using her laptop.</t>
+  </si>
+  <si>
+    <t>7/25/16</t>
+  </si>
 </sst>
 </file>
 
@@ -1850,7 +1865,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K4496"/>
+  <dimension ref="A1:K4808"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4260" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4276" sqref="D4276"/>
@@ -78065,6 +78080,5663 @@
       </c>
       <c r="G4496" s="84" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="4497" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4497" s="77"/>
+      <c r="D4497" s="78"/>
+      <c r="F4497" s="79"/>
+      <c r="G4497" s="80"/>
+      <c r="H4497" s="81"/>
+    </row>
+    <row r="4498" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4498" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4498" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4498" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4498" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4498" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4498" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4499" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4499" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4499" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4499" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4499" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4499" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4500" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4500" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4500" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4500" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4500" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4500" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4501" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4501" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4501" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4501" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4501" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4501" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4501" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4502" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4502" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4502" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4502" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4502" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4502" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4503" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4503" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4503" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4503" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4503" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4503" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4503" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4504" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4504" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4504" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4504" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4504" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4504" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4505" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4505" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4505" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4505" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4505" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4505" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4506" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4506" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4506" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4506" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4506" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4506" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4507" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4507" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4507" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4507" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4507" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4507" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4507" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4508" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4508" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4508" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4508" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4508" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4508" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4509" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4509" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4509" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4509" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4509" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4509" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4510" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4510" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4510" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4510" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4510" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4510" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4511" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4511" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4511" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4511" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4511" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4511" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4511" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4512" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4512" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4512" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4512" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4512" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4512" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4513" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4513" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4513" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4513" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4513" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4514" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4514" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4514" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4514" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4514" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4515" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4515" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4515" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4515" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4515" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4516" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4516" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4516" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4516" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4516" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4516" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4517" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4517" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4517" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4517" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4517" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4517" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4518" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4518" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4518" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4518" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4518" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4519" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4519" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4519" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4519" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4519" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4519" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4520" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4520" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4520" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4520" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4520" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4520" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4521" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4521" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4521" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4521" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4521" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4522" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4522" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4522" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4522" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4522" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4523" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4523" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4523" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4523" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4523" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4524" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4524" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4524" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4524" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4524" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4524" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4525" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4525" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4525" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4525" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4525" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4525" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4526" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4526" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4526" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4526" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4526" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4526" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4526" s="83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4527" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4527" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4527" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4527" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4527" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4528" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4528" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4528" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4528" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4528" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4529" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4529" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4529" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4529" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4529" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4530" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4530" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4530" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4530" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4530" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4531" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4531" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4531" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4531" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4531" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4532" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4532" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4532" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4532" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4532" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4533" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4533" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4533" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4533" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4533" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4534" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4534" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4534" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4534" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4534" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4535" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4535" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4535" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4535" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4535" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4535" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4536" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4536" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4536" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4536" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4536" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4536" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4537" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4537" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4537" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4537" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4537" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4537" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4538" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4538" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4538" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4538" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4538" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4538" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4539" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4539" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4539" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4539" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4539" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4539" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4540" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4540" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4540" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4540" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4540" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4540" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4541" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4541" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4541" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4541" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4541" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4542" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4542" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4542" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4542" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4542" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4543" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4543" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4543" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4543" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4543" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4544" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4544" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4544" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4544" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4544" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4545" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4545" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4545" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4545" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4545" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4545" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4546" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4546" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4546" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4546" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4546" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4547" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4547" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4547" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4547" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4547" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4548" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4548" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4548" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4548" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4548" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4548" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4549" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4549" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4549" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4549" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4549" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4549" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4550" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4550" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4550" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4550" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4550" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4550" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4551" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4551" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4551" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4551" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4551" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4551" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4552" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4552" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4552" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4552" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4552" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4553" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4553" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4553" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4553" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4553" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4553" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4554" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4554" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4554" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4554" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4554" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4554" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4554" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4555" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4555" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4555" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4555" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4555" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4555" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4556" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4556" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4556" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4556" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4556" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4556" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4557" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4557" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4557" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4557" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4557" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4557" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4558" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4558" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4558" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4558" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4558" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4558" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4558" s="83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4559" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4559" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4559" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4559" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4559" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4560" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4560" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4560" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4560" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4560" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4561" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4561" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4561" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4561" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4561" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4561" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4561" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4562" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4562" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4562" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4562" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4562" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4562" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4563" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4563" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4563" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4563" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4563" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4563" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4563" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4564" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4564" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4564" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4564" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4564" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4564" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4565" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4565" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4565" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4565" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4565" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4565" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4566" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4566" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4566" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4566" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4566" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4566" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4567" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4567" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4567" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4567" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4567" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4567" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4568" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4568" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4568" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4568" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4568" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4568" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4569" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4569" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4569" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4569" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4569" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4569" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4570" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4570" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4570" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4570" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4570" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4570" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4571" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4571" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4571" s="11">
+        <v>42576</v>
+      </c>
+      <c r="D4571" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4571" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4571" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4571" s="83"/>
+    </row>
+    <row r="4572" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4572" s="77"/>
+      <c r="D4572" s="78"/>
+      <c r="F4572" s="79"/>
+      <c r="G4572" s="80"/>
+      <c r="H4572" s="81"/>
+    </row>
+    <row r="4573" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4573" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4573" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4573" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4573" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4573" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4574" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4574" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4574" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4574" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4574" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4574" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4575" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4575" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4575" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4575" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4575" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4575" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4576" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4576" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4576" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4576" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4576" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4576" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4577" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4577" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4577" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4577" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4577" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4578" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4578" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4578" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4578" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4578" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4579" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4579" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4579" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4579" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4579" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4580" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4580" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4580" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4580" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4580" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4581" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4581" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4581" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4581" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4581" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4582" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4582" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4582" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4582" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4582" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4582" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4583" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4583" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4583" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4583" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4583" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4583" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4584" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4584" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4584" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4584" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4584" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4585" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4585" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4585" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4585" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4585" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4585" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4586" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4586" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4586" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4586" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4586" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4586" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4587" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4587" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4587" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4587" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4587" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4588" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4588" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4588" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4588" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4588" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4589" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4589" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4589" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4589" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4589" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4590" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4590" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4590" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4590" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4590" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4590" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4591" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4591" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4591" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4591" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4591" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4591" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4592" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4592" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4592" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4592" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4592" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4592" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4593" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4593" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4593" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4593" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4593" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4593" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4593" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4594" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4594" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4594" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4594" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4594" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4594" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4594" s="83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4595" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4595" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4595" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4595" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4595" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4595" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4596" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4596" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4596" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4596" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4596" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4596" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4597" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4597" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4597" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4597" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4597" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4597" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4598" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4598" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4598" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4598" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4598" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4598" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4599" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4599" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4599" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4599" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4599" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4599" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4600" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4600" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4600" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4600" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4600" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4600" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4601" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4601" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4601" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4601" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4601" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4601" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4602" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4602" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4602" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4602" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4602" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4602" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4602" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4603" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4603" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4603" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4603" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4603" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4603" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4603" s="83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4604" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4604" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4604" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4604" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4604" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4604" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4605" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4605" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4605" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4605" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4605" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4605" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4606" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4606" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4606" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4606" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4606" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4606" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4607" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4607" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4607" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4607" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4607" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4607" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4608" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4608" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4608" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4608" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4608" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4608" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4609" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4609" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4609" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4609" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4609" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4609" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4610" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4610" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4610" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4610" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4610" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4610" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4611" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4611" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4611" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4611" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4611" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4611" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4612" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4612" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4612" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4612" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4612" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4612" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4613" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4613" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4613" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4613" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4613" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4613" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4614" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4614" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4614" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4614" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4614" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4614" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4615" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4615" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4615" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4615" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4615" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4615" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4616" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4616" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4616" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4616" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4616" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4616" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4617" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4617" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4617" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4617" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4617" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4617" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4618" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4618" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4618" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4618" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4618" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4618" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4619" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4619" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4619" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4619" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4619" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4619" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4620" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4620" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4620" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4620" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4620" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4621" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4621" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4621" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4621" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4621" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4622" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4622" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4622" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4622" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4622" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4622" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4622" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4623" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4623" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4623" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4623" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4623" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4623" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4624" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4624" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4624" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4624" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4624" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4625" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4625" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4625" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4625" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4625" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4625" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4625" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4626" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4626" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4626" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4626" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4626" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4626" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4627" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4627" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4627" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4627" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4627" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4627" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4628" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4628" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4628" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4628" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4628" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4628" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4629" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4629" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4629" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4629" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4629" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4629" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4630" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4630" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4630" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4630" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4630" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4630" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4631" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4631" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4631" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4631" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4631" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4631" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4632" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4632" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4632" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4632" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4632" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4632" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4633" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4633" s="77"/>
+      <c r="D4633" s="78"/>
+      <c r="F4633" s="79"/>
+      <c r="G4633" s="80"/>
+      <c r="H4633" s="81"/>
+    </row>
+    <row r="4634" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4634" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4634" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4634" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4634" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4634" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4634" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4635" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4635" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4635" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4635" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4635" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4635" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4636" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4636" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4636" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4636" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4636" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4636" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4637" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4637" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4637" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4637" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4637" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4637" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4638" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4638" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4638" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4638" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4638" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4638" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4639" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4639" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4639" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4639" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4639" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4639" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4640" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4640" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4640" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4640" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4640" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4640" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4641" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4641" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4641" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4641" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4641" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4642" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4642" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4642" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4642" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4642" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4643" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4643" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4643" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4643" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4643" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4644" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4644" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4644" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4644" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4644" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4645" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4645" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4645" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4645" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4645" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4646" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4646" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4646" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4646" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4646" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4647" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4647" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4647" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4647" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4647" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4647" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4648" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4648" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4648" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4648" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4648" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4648" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4649" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4649" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4649" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4649" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4649" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4650" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4650" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4650" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4650" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4650" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4650" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4651" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4651" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4651" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4651" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4651" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4651" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4652" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4652" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4652" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4652" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4652" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4652" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4653" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4653" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4653" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4653" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4653" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4654" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4654" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4654" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4654" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4654" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4654" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4655" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4655" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4655" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4655" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4655" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4655" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4655" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4656" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4656" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4656" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4656" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4656" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4656" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4657" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4657" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4657" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4657" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4657" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4657" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4658" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4658" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4658" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4658" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4658" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4658" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4659" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4659" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4659" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4659" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4659" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4659" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4660" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4660" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4660" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4660" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4660" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4660" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4660" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4661" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4661" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4661" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4661" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4661" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4661" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4662" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4662" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4662" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4662" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4662" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4662" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4663" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4663" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4663" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4663" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4663" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4663" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4663" s="83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4664" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4664" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4664" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4664" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4664" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4665" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4665" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4665" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4665" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4665" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4665" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4666" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4666" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4666" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4666" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4666" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4666" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4667" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4667" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4667" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4667" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4667" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4667" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4667" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4668" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4668" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4668" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4668" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4668" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4668" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4669" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4669" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4669" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4669" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4669" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4669" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4670" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4670" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4670" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4670" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4670" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4671" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4671" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4671" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4671" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4671" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4672" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4672" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4672" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4672" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4672" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4673" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4673" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4673" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4673" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4673" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4674" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4674" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4674" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4674" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4674" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4675" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4675" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4675" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4675" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4675" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4676" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4676" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4676" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4676" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4676" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4677" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4677" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4677" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4677" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4677" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4678" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4678" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4678" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4678" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4678" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4678" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4679" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4679" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4679" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4679" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4679" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4679" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4680" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4680" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4680" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4680" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4680" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4680" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4680" s="83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4681" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4681" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4681" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4681" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4681" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4682" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4682" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4682" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4682" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4682" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4683" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4683" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4683" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4683" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4683" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4684" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4684" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4684" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4684" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4684" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4685" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4685" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4685" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4685" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4685" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4686" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4686" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4686" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4686" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4686" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4686" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4687" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4687" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4687" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4687" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4687" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4687" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4688" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4688" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4688" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4688" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4688" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4688" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4689" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4689" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4689" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4689" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4689" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4689" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4690" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4690" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4690" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4690" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4690" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4690" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4690" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4691" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4691" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4691" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4691" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4691" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4691" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4691" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4692" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4692" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4692" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4692" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4692" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4692" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4692" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4693" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4693" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4693" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4693" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4693" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4693" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4693" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4694" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4694" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4694" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4694" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4694" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4694" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4694" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4695" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4695" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4695" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4695" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4695" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4695" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4695" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4696" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4696" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4696" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4696" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4696" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4696" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4696" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4697" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4697" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4697" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4697" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4697" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4697" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4698" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4698" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4698" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4698" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4698" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4698" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4699" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4699" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4699" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4699" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4699" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4699" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4699" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4700" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4700" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4700" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4700" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4700" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4700" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4700" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4701" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4701" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4701" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4701" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4701" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4701" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4702" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4702" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4702" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4702" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4702" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4702" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4702" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4703" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4703" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4703" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4703" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4703" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4703" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4704" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4704" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4704" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4704" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4704" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4704" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4705" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4705" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4705" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4705" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4705" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4705" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4706" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4706" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4706" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4706" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4706" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4706" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4707" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4707" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4707" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4707" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4707" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4707" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4708" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4708" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4708" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4708" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4708" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4708" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4709" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4709" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4709" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4709" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4709" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4709" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4710" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4710" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4710" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4710" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4710" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4710" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4710" s="83"/>
+    </row>
+    <row r="4711" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4711" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4711" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4711" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4711" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4711" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4712" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4712" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4712" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4712" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4712" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4712" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4713" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4713" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4713" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4713" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4713" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4713" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4714" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4714" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4714" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4714" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4714" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4714" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4714" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4715" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4715" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4715" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4715" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4715" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4715" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4715" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4716" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4716" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4716" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4716" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4716" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4716" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4716" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4717" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4717" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4717" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4717" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4717" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4717" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4717" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4718" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4718" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4718" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4718" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4718" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4718" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4719" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4719" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4719" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4719" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4719" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4719" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4719" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4720" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4720" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4720" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4720" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4720" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4720" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4720" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4721" spans="2:8" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4721" s="77"/>
+      <c r="D4721" s="78"/>
+      <c r="F4721" s="79"/>
+      <c r="G4721" s="80"/>
+      <c r="H4721" s="81"/>
+    </row>
+    <row r="4722" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4722" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4722" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4722" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4722" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4722" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4722" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4723" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4723" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4723" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4723" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4723" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4723" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4724" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4724" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4724" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4724" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4724" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4724" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4725" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4725" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4725" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4725" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4725" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4725" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4726" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4726" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4726" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4726" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4726" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4726" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4727" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4727" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4727" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4727" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4727" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4727" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4728" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4728" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4728" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4728" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4728" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4728" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4729" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4729" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4729" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4729" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4729" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4729" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4730" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4730" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4730" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4730" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4730" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4730" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4731" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4731" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4731" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4731" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4731" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4731" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4732" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4732" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4732" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4732" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4732" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4732" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4733" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4733" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4733" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4733" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4733" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4733" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4734" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4734" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4734" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4734" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4734" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4734" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4735" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4735" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4735" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4735" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4735" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4735" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4735" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4736" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4736" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4736" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4736" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4736" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4736" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4737" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4737" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4737" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4737" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4737" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4737" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4738" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4738" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4738" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4738" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4738" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4738" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4738" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4739" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4739" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4739" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4739" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4739" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4739" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4740" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4740" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4740" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4740" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4740" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4740" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4740" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4741" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4741" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4741" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4741" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4741" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4741" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4741" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4742" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4742" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4742" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4742" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4742" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4742" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4743" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4743" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4743" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4743" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4743" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4743" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4744" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4744" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4744" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4744" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4744" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4744" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4745" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4745" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4745" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4745" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4745" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4745" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4745" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4746" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4746" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4746" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4746" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4746" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4746" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4746" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4747" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4747" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4747" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4747" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4747" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4747" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4747" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4748" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4748" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4748" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4748" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4748" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4748" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4749" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4749" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4749" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4749" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4749" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4749" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4750" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4750" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4750" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4750" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4750" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4750" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4750" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4751" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4751" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4751" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4751" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4751" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4751" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4752" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4752" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4752" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4752" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4752" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4752" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4753" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4753" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4753" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4753" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4753" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4753" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4753" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4754" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4754" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4754" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4754" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4754" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4754" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4755" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4755" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4755" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4755" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4755" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4755" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4756" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4756" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4756" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4756" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4756" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4756" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4757" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4757" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4757" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4757" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4757" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4757" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4758" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4758" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4758" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4758" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4758" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4758" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4759" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4759" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4759" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4759" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4759" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4759" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4759" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4760" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4760" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4760" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4760" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4760" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4760" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4760" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4761" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4761" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4761" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4761" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4761" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4761" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4761" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4762" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4762" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4762" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4762" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4762" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4762" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4762" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4763" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4763" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4763" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4763" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4763" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4763" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4763" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4764" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4764" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4764" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4764" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4764" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4764" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4764" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4765" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4765" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4765" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4765" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4765" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4765" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4765" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4766" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4766" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4766" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4766" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4766" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4766" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4767" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4767" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4767" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4767" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4767" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4767" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4768" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4768" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4768" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4768" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4768" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4768" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4768" s="83" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4769" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4769" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4769" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4769" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4769" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4769" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4769" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4770" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4770" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4770" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4770" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4770" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4770" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4771" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4771" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4771" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4771" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4771" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4771" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4771" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4772" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4772" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4772" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4772" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4772" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4772" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4773" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4773" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4773" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4773" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4773" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4773" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4774" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4774" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4774" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4774" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4774" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4774" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4775" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4775" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4775" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4775" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4775" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4775" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4776" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4776" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4776" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4776" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4776" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4776" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4776" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4777" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4777" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4777" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4777" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4777" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4777" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4777" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4778" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4778" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4778" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4778" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4778" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4778" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4778" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4779" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4779" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4779" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4779" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4779" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4779" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4779" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4780" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4780" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4780" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4780" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4780" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4780" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4780" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4781" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4781" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4781" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4781" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4781" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4781" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4781" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4782" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4782" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4782" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4782" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4782" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4782" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4782" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4783" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4783" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4783" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4783" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4783" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4783" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4784" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4784" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4784" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4784" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4784" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4784" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4785" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4785" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4785" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4785" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4785" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4785" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4786" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4786" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4786" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4786" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4786" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4786" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4787" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4787" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4787" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4787" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4787" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4787" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4788" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4788" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4788" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4788" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4788" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4788" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4788" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4789" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4789" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4789" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4789" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4789" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4789" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4789" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4790" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4790" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4790" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4790" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4790" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4790" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4790" s="83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4791" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4791" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4791" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4791" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4791" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4791" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4792" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4792" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4792" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4792" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4792" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4792" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4793" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4793" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4793" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4793" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4793" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4793" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4793" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4794" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4794" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4794" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4794" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4794" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4794" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4794" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4795" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4795" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4795" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4795" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4795" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4795" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4795" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4796" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4796" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4796" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4796" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4796" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4796" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4796" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4797" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4797" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4797" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4797" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4797" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4797" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4797" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4798" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4798" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4798" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4798" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4798" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4798" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4799" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4799" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4799" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4799" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4799" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4799" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4800" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4800" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4800" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4800" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4800" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4800" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4801" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4801" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4801" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4801" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4801" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4801" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4802" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4802" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4802" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4802" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4802" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4802" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4803" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4803" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4803" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4803" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4803" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4803" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4803" s="83"/>
+    </row>
+    <row r="4804" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4804" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4804" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4804" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4804" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4804" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4805" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4805" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4805" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4805" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4805" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4805" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4805" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4806" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4806" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4806" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4806" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4806" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4806" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4806" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4807" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4807" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4807" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4807" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4807" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4807" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4807" s="84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4808" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4808" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4808" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4808" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4808" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4808" s="13" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
